--- a/AutodeskCost/Autodesk費用統整.xlsx
+++ b/AutodeskCost/Autodesk費用統整.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Donald的檔案\中興工程\Autodesk費用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\C#\AutodeskCost\AutodeskCost\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="計畫資訊" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'auto cad'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Autodesk軟體使用計畫!$B$2:$I$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">BDSP!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Lumion!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Rhino!$A$1:$L$1</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6606" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6613" uniqueCount="468">
   <si>
     <t>年月</t>
   </si>
@@ -1557,7 +1558,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1579,12 +1580,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1623,21 +1618,6 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1768,7 +1748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1784,68 +1764,28 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1854,14 +1794,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2156,759 +2126,759 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="12">
         <v>4125</v>
       </c>
-      <c r="E2" s="26">
-        <v>24</v>
-      </c>
-      <c r="F2" s="24">
+      <c r="E2" s="12">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="12">
         <v>3398</v>
       </c>
-      <c r="E3" s="24">
-        <v>24</v>
-      </c>
-      <c r="F3" s="24">
+      <c r="E3" s="10">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="12">
         <v>3398</v>
       </c>
-      <c r="E4" s="26">
-        <v>24</v>
-      </c>
-      <c r="F4" s="24">
+      <c r="E4" s="12">
+        <v>24</v>
+      </c>
+      <c r="F4" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="12">
         <v>5139</v>
       </c>
-      <c r="E5" s="26">
-        <v>24</v>
-      </c>
-      <c r="F5" s="24">
+      <c r="E5" s="12">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="10">
         <v>3884</v>
       </c>
-      <c r="E6" s="24">
-        <v>24</v>
-      </c>
-      <c r="F6" s="24">
+      <c r="E6" s="10">
+        <v>24</v>
+      </c>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="10">
         <v>5085</v>
       </c>
-      <c r="E7" s="24">
-        <v>24</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="E7" s="10">
+        <v>24</v>
+      </c>
+      <c r="F7" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="12">
         <v>4751</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="10">
         <v>14</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="12">
         <v>4518</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="10">
         <v>14</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="12">
         <v>4728</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="10">
         <v>22</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="12">
         <v>7383</v>
       </c>
-      <c r="E11" s="24">
-        <v>24</v>
-      </c>
-      <c r="F11" s="24">
+      <c r="E11" s="10">
+        <v>24</v>
+      </c>
+      <c r="F11" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="12">
         <v>3884</v>
       </c>
-      <c r="E12" s="24">
-        <v>24</v>
-      </c>
-      <c r="F12" s="24">
+      <c r="E12" s="10">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="12">
         <v>4867</v>
       </c>
-      <c r="E13" s="24">
-        <v>24</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="E13" s="10">
+        <v>24</v>
+      </c>
+      <c r="F13" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="12">
         <v>6877</v>
       </c>
-      <c r="E14" s="24">
-        <v>24</v>
-      </c>
-      <c r="F14" s="24">
+      <c r="E14" s="10">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="12">
         <v>5085</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="10">
         <v>14</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="10">
         <v>5180</v>
       </c>
-      <c r="E16" s="24">
-        <v>24</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="E16" s="10">
+        <v>24</v>
+      </c>
+      <c r="F16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="12">
         <v>5973</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="10">
         <v>11</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="12">
         <v>4313</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="10">
         <v>14</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="12">
         <v>7456</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="10">
         <v>14</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="12">
         <v>3483</v>
       </c>
-      <c r="E20" s="24">
-        <v>24</v>
-      </c>
-      <c r="F20" s="24">
+      <c r="E20" s="10">
+        <v>24</v>
+      </c>
+      <c r="F20" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="12">
         <v>4867</v>
       </c>
-      <c r="E21" s="24">
-        <v>24</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="E21" s="10">
+        <v>24</v>
+      </c>
+      <c r="F21" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="10">
         <v>5386</v>
       </c>
-      <c r="E22" s="24">
-        <v>24</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="E22" s="10">
+        <v>24</v>
+      </c>
+      <c r="F22" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="12">
         <v>4838</v>
       </c>
-      <c r="E23" s="24">
-        <v>24</v>
-      </c>
-      <c r="F23" s="24">
+      <c r="E23" s="10">
+        <v>24</v>
+      </c>
+      <c r="F23" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="12">
         <v>4867</v>
       </c>
-      <c r="E24" s="24">
-        <v>24</v>
-      </c>
-      <c r="F24" s="24">
+      <c r="E24" s="10">
+        <v>24</v>
+      </c>
+      <c r="F24" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="12">
         <v>5180</v>
       </c>
-      <c r="E25" s="24">
-        <v>24</v>
-      </c>
-      <c r="F25" s="24">
+      <c r="E25" s="10">
+        <v>24</v>
+      </c>
+      <c r="F25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="12">
         <v>4821</v>
       </c>
-      <c r="E26" s="24">
-        <v>24</v>
-      </c>
-      <c r="F26" s="24">
+      <c r="E26" s="10">
+        <v>24</v>
+      </c>
+      <c r="F26" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="12">
         <v>4082</v>
       </c>
-      <c r="E27" s="24">
-        <v>24</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="E27" s="10">
+        <v>24</v>
+      </c>
+      <c r="F27" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="12">
         <v>5091</v>
       </c>
-      <c r="E28" s="24">
-        <v>24</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="E28" s="10">
+        <v>24</v>
+      </c>
+      <c r="F28" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="12">
         <v>4125</v>
       </c>
-      <c r="E29" s="24">
-        <v>24</v>
-      </c>
-      <c r="F29" s="24">
+      <c r="E29" s="10">
+        <v>24</v>
+      </c>
+      <c r="F29" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="12">
         <v>4082</v>
       </c>
-      <c r="E30" s="24">
-        <v>24</v>
-      </c>
-      <c r="F30" s="24">
+      <c r="E30" s="10">
+        <v>24</v>
+      </c>
+      <c r="F30" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="12">
         <v>4948</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="10">
         <v>33</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="12">
         <v>4143</v>
       </c>
-      <c r="E32" s="24">
-        <v>24</v>
-      </c>
-      <c r="F32" s="24">
+      <c r="E32" s="10">
+        <v>24</v>
+      </c>
+      <c r="F32" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="12">
         <v>4320</v>
       </c>
-      <c r="E33" s="24">
-        <v>24</v>
-      </c>
-      <c r="F33" s="24">
+      <c r="E33" s="10">
+        <v>24</v>
+      </c>
+      <c r="F33" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="12">
         <v>6877</v>
       </c>
-      <c r="E34" s="24">
-        <v>24</v>
-      </c>
-      <c r="F34" s="24">
+      <c r="E34" s="10">
+        <v>24</v>
+      </c>
+      <c r="F34" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="12">
         <v>5526</v>
       </c>
-      <c r="E35" s="24">
-        <v>24</v>
-      </c>
-      <c r="F35" s="24">
+      <c r="E35" s="10">
+        <v>24</v>
+      </c>
+      <c r="F35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="12">
         <v>4867</v>
       </c>
-      <c r="E36" s="24">
-        <v>24</v>
-      </c>
-      <c r="F36" s="24">
+      <c r="E36" s="10">
+        <v>24</v>
+      </c>
+      <c r="F36" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="D37" s="24">
+      <c r="D37" s="10">
         <v>4125</v>
       </c>
-      <c r="E37" s="24">
-        <v>24</v>
-      </c>
-      <c r="F37" s="24">
+      <c r="E37" s="10">
+        <v>24</v>
+      </c>
+      <c r="F37" s="10">
         <v>0</v>
       </c>
     </row>
@@ -2981,3186 +2951,3186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="17" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="17" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27">
-        <v>24</v>
-      </c>
-      <c r="C3" s="27">
-        <v>24</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="B3" s="13">
+        <v>24</v>
+      </c>
+      <c r="C3" s="13">
+        <v>24</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="14">
         <v>0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="14">
         <v>0</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="14">
         <v>0</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="14">
         <v>0</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="14">
         <v>5995</v>
       </c>
-      <c r="K3" s="28">
+      <c r="K3" s="14">
         <v>5995</v>
       </c>
-      <c r="L3" s="28">
+      <c r="L3" s="14">
         <v>5995</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27">
-        <v>24</v>
-      </c>
-      <c r="C5" s="27">
-        <v>24</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="13">
+        <v>24</v>
+      </c>
+      <c r="C5" s="13">
+        <v>24</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="14">
         <v>0</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="14">
         <v>0</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="14">
         <v>0</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="14">
         <v>0</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="14">
         <v>190</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="14">
         <v>190</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="14">
         <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="13">
         <v>14</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="13">
         <v>14</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="14">
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="14">
         <v>0</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="14">
         <v>0</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="14">
         <v>0</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="14">
         <v>112</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="14">
         <v>112</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="14">
         <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="27">
-        <v>24</v>
-      </c>
-      <c r="C9" s="27">
-        <v>24</v>
-      </c>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="13">
+        <v>24</v>
+      </c>
+      <c r="C9" s="13">
+        <v>24</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="14">
         <v>0</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="14">
         <v>0</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
-      <c r="I9" s="28">
+      <c r="I9" s="14">
         <v>0</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="14">
         <v>50</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="14">
         <v>50</v>
       </c>
-      <c r="L9" s="28"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="14">
         <v>0</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="14">
         <v>0</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="14">
         <v>0</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="14">
         <v>1042</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="14">
         <v>1042</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="14">
         <v>1092</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="27">
-        <v>24</v>
-      </c>
-      <c r="C12" s="27">
-        <v>24</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="13">
+        <v>24</v>
+      </c>
+      <c r="C12" s="13">
+        <v>24</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="14">
         <v>0</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="14">
         <v>0</v>
       </c>
-      <c r="G12" s="28">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="28">
+      <c r="H12" s="14">
         <v>0</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="14">
         <v>0</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="14">
         <v>17472</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="14">
         <v>17472</v>
       </c>
-      <c r="L12" s="28"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="14">
         <v>0</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="14">
         <v>0</v>
       </c>
-      <c r="G13" s="28">
+      <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="14">
         <v>0</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="14">
         <v>0</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="14">
         <v>45</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="14">
         <v>45</v>
       </c>
-      <c r="L13" s="28"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="14">
         <v>0</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="14">
         <v>0</v>
       </c>
-      <c r="G14" s="28">
+      <c r="G14" s="14">
         <v>0</v>
       </c>
-      <c r="H14" s="28">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="14">
         <v>0</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="14">
         <v>78</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="14">
         <v>78</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="14">
         <v>17595</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="27">
-        <v>24</v>
-      </c>
-      <c r="C16" s="27">
-        <v>24</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="B16" s="13">
+        <v>24</v>
+      </c>
+      <c r="C16" s="13">
+        <v>24</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="14">
         <v>0</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="14">
         <v>0</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="14">
         <v>0</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="14">
         <v>0</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="14">
         <v>0</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="14">
         <v>145</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="14">
         <v>145</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="14">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27">
-        <v>24</v>
-      </c>
-      <c r="C18" s="27">
-        <v>24</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="B18" s="13">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13">
+        <v>24</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="14">
         <v>0</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="14">
         <v>0</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="14">
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="14">
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="14">
         <v>0</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="14">
         <v>2800</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="14">
         <v>2800</v>
       </c>
-      <c r="L18" s="28"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="14">
         <v>0</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="14">
         <v>0</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="14">
         <v>0</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="14">
         <v>0</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="14">
         <v>0</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="14">
         <v>988</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="14">
         <v>988</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="14">
         <v>3788</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="27">
-        <v>24</v>
-      </c>
-      <c r="C21" s="27">
-        <v>24</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="B21" s="13">
+        <v>24</v>
+      </c>
+      <c r="C21" s="13">
+        <v>24</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="14">
         <v>0</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="14">
         <v>0</v>
       </c>
-      <c r="G21" s="28">
+      <c r="G21" s="14">
         <v>0</v>
       </c>
-      <c r="H21" s="28">
+      <c r="H21" s="14">
         <v>0</v>
       </c>
-      <c r="I21" s="28">
+      <c r="I21" s="14">
         <v>0</v>
       </c>
-      <c r="J21" s="28">
+      <c r="J21" s="14">
         <v>50</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="14">
         <v>50</v>
       </c>
-      <c r="L21" s="28"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="E22" s="28">
+      <c r="E22" s="14">
         <v>0</v>
       </c>
-      <c r="F22" s="28">
+      <c r="F22" s="14">
         <v>0</v>
       </c>
-      <c r="G22" s="28">
+      <c r="G22" s="14">
         <v>0</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="14">
         <v>0</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="14">
         <v>0</v>
       </c>
-      <c r="J22" s="28">
+      <c r="J22" s="14">
         <v>994</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="14">
         <v>994</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="14">
         <v>1044</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="27">
-        <v>24</v>
-      </c>
-      <c r="C24" s="27">
-        <v>24</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="B24" s="13">
+        <v>24</v>
+      </c>
+      <c r="C24" s="13">
+        <v>24</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="14">
         <v>0</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="14">
         <v>0</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="14">
         <v>0</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="14">
         <v>0</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="14">
         <v>0</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="14">
         <v>117</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="14">
         <v>117</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="14">
         <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="27">
-        <v>24</v>
-      </c>
-      <c r="C26" s="27">
-        <v>24</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="B26" s="13">
+        <v>24</v>
+      </c>
+      <c r="C26" s="13">
+        <v>24</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="14">
         <v>0</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="14">
         <v>0</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="14">
         <v>0</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="14">
         <v>0</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="14">
         <v>0</v>
       </c>
-      <c r="J26" s="28">
+      <c r="J26" s="14">
         <v>1022</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="14">
         <v>1022</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="14">
         <v>1022</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="27">
-        <v>24</v>
-      </c>
-      <c r="C28" s="27">
-        <v>24</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="B28" s="13">
+        <v>24</v>
+      </c>
+      <c r="C28" s="13">
+        <v>24</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="14">
         <v>0</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="14">
         <v>0</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="14">
         <v>0</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="14">
         <v>0</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="14">
         <v>0</v>
       </c>
-      <c r="J28" s="28">
+      <c r="J28" s="14">
         <v>30</v>
       </c>
-      <c r="K28" s="28">
+      <c r="K28" s="14">
         <v>30</v>
       </c>
-      <c r="L28" s="28"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="14">
         <v>0</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="14">
         <v>0</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="14">
         <v>0</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="14">
         <v>0</v>
       </c>
-      <c r="J29" s="28">
+      <c r="J29" s="14">
         <v>19479</v>
       </c>
-      <c r="K29" s="28">
+      <c r="K29" s="14">
         <v>19479</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="14">
         <v>19509</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="27">
-        <v>24</v>
-      </c>
-      <c r="C31" s="27">
-        <v>24</v>
-      </c>
-      <c r="D31" s="27" t="s">
+      <c r="B31" s="13">
+        <v>24</v>
+      </c>
+      <c r="C31" s="13">
+        <v>24</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="14">
         <v>0</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="14">
         <v>0</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="14">
         <v>0</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="14">
         <v>0</v>
       </c>
-      <c r="I31" s="28">
+      <c r="I31" s="14">
         <v>0</v>
       </c>
-      <c r="J31" s="28">
+      <c r="J31" s="14">
         <v>5000</v>
       </c>
-      <c r="K31" s="28">
+      <c r="K31" s="14">
         <v>5000</v>
       </c>
-      <c r="L31" s="28"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="14">
         <v>0</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="14">
         <v>0</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="14">
         <v>0</v>
       </c>
-      <c r="H32" s="28">
+      <c r="H32" s="14">
         <v>0</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="14">
         <v>0</v>
       </c>
-      <c r="J32" s="28">
+      <c r="J32" s="14">
         <v>5</v>
       </c>
-      <c r="K32" s="28">
+      <c r="K32" s="14">
         <v>5</v>
       </c>
-      <c r="L32" s="28"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27" t="s">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="E33" s="28">
+      <c r="E33" s="14">
         <v>0</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="14">
         <v>0</v>
       </c>
-      <c r="G33" s="28">
+      <c r="G33" s="14">
         <v>0</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="14">
         <v>0</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="14">
         <v>0</v>
       </c>
-      <c r="J33" s="28">
+      <c r="J33" s="14">
         <v>2875</v>
       </c>
-      <c r="K33" s="28">
+      <c r="K33" s="14">
         <v>2875</v>
       </c>
-      <c r="L33" s="28">
+      <c r="L33" s="14">
         <v>7880</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="27">
-        <v>24</v>
-      </c>
-      <c r="C35" s="27">
-        <v>24</v>
-      </c>
-      <c r="D35" s="27" t="s">
+      <c r="B35" s="13">
+        <v>24</v>
+      </c>
+      <c r="C35" s="13">
+        <v>24</v>
+      </c>
+      <c r="D35" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E35" s="28">
+      <c r="E35" s="14">
         <v>0</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="14">
         <v>0</v>
       </c>
-      <c r="G35" s="28">
+      <c r="G35" s="14">
         <v>0</v>
       </c>
-      <c r="H35" s="28">
+      <c r="H35" s="14">
         <v>0</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="14">
         <v>0</v>
       </c>
-      <c r="J35" s="28">
+      <c r="J35" s="14">
         <v>134</v>
       </c>
-      <c r="K35" s="28">
+      <c r="K35" s="14">
         <v>134</v>
       </c>
-      <c r="L35" s="28">
+      <c r="L35" s="14">
         <v>134</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33" t="s">
+      <c r="A36" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="27">
-        <v>24</v>
-      </c>
-      <c r="C37" s="27">
-        <v>24</v>
-      </c>
-      <c r="D37" s="27" t="s">
+      <c r="B37" s="13">
+        <v>24</v>
+      </c>
+      <c r="C37" s="13">
+        <v>24</v>
+      </c>
+      <c r="D37" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="E37" s="28">
+      <c r="E37" s="14">
         <v>0</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="14">
         <v>0</v>
       </c>
-      <c r="G37" s="28">
+      <c r="G37" s="14">
         <v>0</v>
       </c>
-      <c r="H37" s="28">
+      <c r="H37" s="14">
         <v>0</v>
       </c>
-      <c r="I37" s="28">
+      <c r="I37" s="14">
         <v>0</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="14">
         <v>30</v>
       </c>
-      <c r="K37" s="28">
+      <c r="K37" s="14">
         <v>30</v>
       </c>
-      <c r="L37" s="28"/>
+      <c r="L37" s="14"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27" t="s">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="E38" s="28">
+      <c r="E38" s="14">
         <v>0</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="14">
         <v>0</v>
       </c>
-      <c r="G38" s="28">
+      <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="14">
         <v>0</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="14">
         <v>0</v>
       </c>
-      <c r="J38" s="28">
+      <c r="J38" s="14">
         <v>884</v>
       </c>
-      <c r="K38" s="28">
+      <c r="K38" s="14">
         <v>884</v>
       </c>
-      <c r="L38" s="28">
+      <c r="L38" s="14">
         <v>914</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="27">
-        <v>24</v>
-      </c>
-      <c r="C40" s="27">
-        <v>24</v>
-      </c>
-      <c r="D40" s="27" t="s">
+      <c r="B40" s="13">
+        <v>24</v>
+      </c>
+      <c r="C40" s="13">
+        <v>24</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="14">
         <v>0</v>
       </c>
-      <c r="F40" s="28">
+      <c r="F40" s="14">
         <v>0</v>
       </c>
-      <c r="G40" s="28">
+      <c r="G40" s="14">
         <v>0</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="14">
         <v>0</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="14">
         <v>0</v>
       </c>
-      <c r="J40" s="28">
+      <c r="J40" s="14">
         <v>5</v>
       </c>
-      <c r="K40" s="28">
+      <c r="K40" s="14">
         <v>5</v>
       </c>
-      <c r="L40" s="28"/>
+      <c r="L40" s="14"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27" t="s">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E41" s="28">
+      <c r="E41" s="14">
         <v>0</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="14">
         <v>0</v>
       </c>
-      <c r="G41" s="28">
+      <c r="G41" s="14">
         <v>0</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="14">
         <v>0</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="14">
         <v>1053</v>
       </c>
-      <c r="K41" s="28">
+      <c r="K41" s="14">
         <v>1053</v>
       </c>
-      <c r="L41" s="28">
+      <c r="L41" s="14">
         <v>1058</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
+      <c r="A43" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="27">
-        <v>24</v>
-      </c>
-      <c r="C43" s="27">
-        <v>24</v>
-      </c>
-      <c r="D43" s="27" t="s">
+      <c r="B43" s="13">
+        <v>24</v>
+      </c>
+      <c r="C43" s="13">
+        <v>24</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="14">
         <v>0</v>
       </c>
-      <c r="F43" s="28">
+      <c r="F43" s="14">
         <v>0</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="14">
         <v>0</v>
       </c>
-      <c r="H43" s="28">
+      <c r="H43" s="14">
         <v>0</v>
       </c>
-      <c r="I43" s="28">
+      <c r="I43" s="14">
         <v>0</v>
       </c>
-      <c r="J43" s="28">
+      <c r="J43" s="14">
         <v>2402</v>
       </c>
-      <c r="K43" s="28">
+      <c r="K43" s="14">
         <v>2402</v>
       </c>
-      <c r="L43" s="28">
+      <c r="L43" s="14">
         <v>2402</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="A45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="27">
-        <v>24</v>
-      </c>
-      <c r="C45" s="27">
-        <v>24</v>
-      </c>
-      <c r="D45" s="27" t="s">
+      <c r="B45" s="13">
+        <v>24</v>
+      </c>
+      <c r="C45" s="13">
+        <v>24</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="E45" s="28">
+      <c r="E45" s="14">
         <v>0</v>
       </c>
-      <c r="F45" s="28">
+      <c r="F45" s="14">
         <v>0</v>
       </c>
-      <c r="G45" s="28">
+      <c r="G45" s="14">
         <v>0</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="14">
         <v>0</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="14">
         <v>0</v>
       </c>
-      <c r="J45" s="28">
+      <c r="J45" s="14">
         <v>225</v>
       </c>
-      <c r="K45" s="28">
+      <c r="K45" s="14">
         <v>225</v>
       </c>
-      <c r="L45" s="28">
+      <c r="L45" s="14">
         <v>225</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="29"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="27">
-        <v>24</v>
-      </c>
-      <c r="C47" s="27">
-        <v>24</v>
-      </c>
-      <c r="D47" s="27" t="s">
+      <c r="B47" s="13">
+        <v>24</v>
+      </c>
+      <c r="C47" s="13">
+        <v>24</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="14">
         <v>0</v>
       </c>
-      <c r="F47" s="28">
+      <c r="F47" s="14">
         <v>0</v>
       </c>
-      <c r="G47" s="28">
+      <c r="G47" s="14">
         <v>0</v>
       </c>
-      <c r="H47" s="28">
+      <c r="H47" s="14">
         <v>0</v>
       </c>
-      <c r="I47" s="28">
+      <c r="I47" s="14">
         <v>0</v>
       </c>
-      <c r="J47" s="28">
+      <c r="J47" s="14">
         <v>819</v>
       </c>
-      <c r="K47" s="28">
+      <c r="K47" s="14">
         <v>819</v>
       </c>
-      <c r="L47" s="28">
+      <c r="L47" s="14">
         <v>819</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
+      <c r="A48" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="27">
-        <v>24</v>
-      </c>
-      <c r="C49" s="27">
+      <c r="B49" s="13">
+        <v>24</v>
+      </c>
+      <c r="C49" s="13">
         <v>0</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="E49" s="28">
+      <c r="E49" s="14">
         <v>0</v>
       </c>
-      <c r="F49" s="28">
+      <c r="F49" s="14">
         <v>770</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="14">
         <v>0</v>
       </c>
-      <c r="H49" s="28">
+      <c r="H49" s="14">
         <v>0</v>
       </c>
-      <c r="I49" s="28">
+      <c r="I49" s="14">
         <v>0</v>
       </c>
-      <c r="J49" s="28">
+      <c r="J49" s="14">
         <v>0</v>
       </c>
-      <c r="K49" s="28">
+      <c r="K49" s="14">
         <v>770</v>
       </c>
-      <c r="L49" s="28"/>
+      <c r="L49" s="14"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="14">
         <v>0</v>
       </c>
-      <c r="F50" s="28">
+      <c r="F50" s="14">
         <v>10200</v>
       </c>
-      <c r="G50" s="28">
+      <c r="G50" s="14">
         <v>0</v>
       </c>
-      <c r="H50" s="28">
+      <c r="H50" s="14">
         <v>0</v>
       </c>
-      <c r="I50" s="28">
+      <c r="I50" s="14">
         <v>0</v>
       </c>
-      <c r="J50" s="28">
+      <c r="J50" s="14">
         <v>0</v>
       </c>
-      <c r="K50" s="28">
+      <c r="K50" s="14">
         <v>10200</v>
       </c>
-      <c r="L50" s="28"/>
+      <c r="L50" s="14"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27" t="s">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="14">
         <v>0</v>
       </c>
-      <c r="F51" s="28">
+      <c r="F51" s="14">
         <v>8700</v>
       </c>
-      <c r="G51" s="28">
+      <c r="G51" s="14">
         <v>0</v>
       </c>
-      <c r="H51" s="28">
+      <c r="H51" s="14">
         <v>0</v>
       </c>
-      <c r="I51" s="28">
+      <c r="I51" s="14">
         <v>0</v>
       </c>
-      <c r="J51" s="28">
+      <c r="J51" s="14">
         <v>0</v>
       </c>
-      <c r="K51" s="28">
+      <c r="K51" s="14">
         <v>8700</v>
       </c>
-      <c r="L51" s="28"/>
+      <c r="L51" s="14"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27" t="s">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="14">
         <v>0</v>
       </c>
-      <c r="F52" s="28">
+      <c r="F52" s="14">
         <v>17310</v>
       </c>
-      <c r="G52" s="28">
+      <c r="G52" s="14">
         <v>0</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="14">
         <v>0</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="14">
         <v>0</v>
       </c>
-      <c r="J52" s="28">
+      <c r="J52" s="14">
         <v>0</v>
       </c>
-      <c r="K52" s="28">
+      <c r="K52" s="14">
         <v>17310</v>
       </c>
-      <c r="L52" s="28"/>
+      <c r="L52" s="14"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="E53" s="28">
+      <c r="E53" s="14">
         <v>0</v>
       </c>
-      <c r="F53" s="28">
+      <c r="F53" s="14">
         <v>30</v>
       </c>
-      <c r="G53" s="28">
+      <c r="G53" s="14">
         <v>0</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H53" s="14">
         <v>0</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I53" s="14">
         <v>0</v>
       </c>
-      <c r="J53" s="28">
+      <c r="J53" s="14">
         <v>0</v>
       </c>
-      <c r="K53" s="28">
+      <c r="K53" s="14">
         <v>30</v>
       </c>
-      <c r="L53" s="28"/>
+      <c r="L53" s="14"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="14">
         <v>0</v>
       </c>
-      <c r="F54" s="28">
+      <c r="F54" s="14">
         <v>0</v>
       </c>
-      <c r="G54" s="28">
+      <c r="G54" s="14">
         <v>0</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="14">
         <v>0</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="14">
         <v>0</v>
       </c>
-      <c r="J54" s="28">
+      <c r="J54" s="14">
         <v>4748</v>
       </c>
-      <c r="K54" s="28">
+      <c r="K54" s="14">
         <v>4748</v>
       </c>
-      <c r="L54" s="28"/>
+      <c r="L54" s="14"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27" t="s">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E55" s="14">
         <v>0</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F55" s="14">
         <v>450</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G55" s="14">
         <v>0</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H55" s="14">
         <v>0</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="14">
         <v>0</v>
       </c>
-      <c r="J55" s="28">
+      <c r="J55" s="14">
         <v>0</v>
       </c>
-      <c r="K55" s="28">
+      <c r="K55" s="14">
         <v>450</v>
       </c>
-      <c r="L55" s="28"/>
+      <c r="L55" s="14"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="14">
         <v>0</v>
       </c>
-      <c r="F56" s="28">
+      <c r="F56" s="14">
         <v>8790</v>
       </c>
-      <c r="G56" s="28">
+      <c r="G56" s="14">
         <v>0</v>
       </c>
-      <c r="H56" s="28">
+      <c r="H56" s="14">
         <v>0</v>
       </c>
-      <c r="I56" s="28">
+      <c r="I56" s="14">
         <v>0</v>
       </c>
-      <c r="J56" s="28">
+      <c r="J56" s="14">
         <v>0</v>
       </c>
-      <c r="K56" s="28">
+      <c r="K56" s="14">
         <v>8790</v>
       </c>
-      <c r="L56" s="28"/>
+      <c r="L56" s="14"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27" t="s">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="E57" s="28">
+      <c r="E57" s="14">
         <v>0</v>
       </c>
-      <c r="F57" s="28">
+      <c r="F57" s="14">
         <v>10260</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="14">
         <v>0</v>
       </c>
-      <c r="H57" s="28">
+      <c r="H57" s="14">
         <v>0</v>
       </c>
-      <c r="I57" s="28">
+      <c r="I57" s="14">
         <v>0</v>
       </c>
-      <c r="J57" s="28">
+      <c r="J57" s="14">
         <v>0</v>
       </c>
-      <c r="K57" s="28">
+      <c r="K57" s="14">
         <v>10260</v>
       </c>
-      <c r="L57" s="28"/>
+      <c r="L57" s="14"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27" t="s">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="E58" s="28">
+      <c r="E58" s="14">
         <v>0</v>
       </c>
-      <c r="F58" s="28">
+      <c r="F58" s="14">
         <v>7440</v>
       </c>
-      <c r="G58" s="28">
+      <c r="G58" s="14">
         <v>0</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="14">
         <v>0</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="14">
         <v>0</v>
       </c>
-      <c r="J58" s="28">
+      <c r="J58" s="14">
         <v>0</v>
       </c>
-      <c r="K58" s="28">
+      <c r="K58" s="14">
         <v>7440</v>
       </c>
-      <c r="L58" s="28"/>
+      <c r="L58" s="14"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27" t="s">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E59" s="14">
         <v>0</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F59" s="14">
         <v>60</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G59" s="14">
         <v>0</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H59" s="14">
         <v>0</v>
       </c>
-      <c r="I59" s="28">
+      <c r="I59" s="14">
         <v>0</v>
       </c>
-      <c r="J59" s="28">
+      <c r="J59" s="14">
         <v>0</v>
       </c>
-      <c r="K59" s="28">
+      <c r="K59" s="14">
         <v>60</v>
       </c>
-      <c r="L59" s="28"/>
+      <c r="L59" s="14"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="E60" s="28">
+      <c r="E60" s="14">
         <v>0</v>
       </c>
-      <c r="F60" s="28">
+      <c r="F60" s="14">
         <v>150</v>
       </c>
-      <c r="G60" s="28">
+      <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H60" s="28">
+      <c r="H60" s="14">
         <v>0</v>
       </c>
-      <c r="I60" s="28">
+      <c r="I60" s="14">
         <v>0</v>
       </c>
-      <c r="J60" s="28">
+      <c r="J60" s="14">
         <v>0</v>
       </c>
-      <c r="K60" s="28">
+      <c r="K60" s="14">
         <v>150</v>
       </c>
-      <c r="L60" s="28"/>
+      <c r="L60" s="14"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27" t="s">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="E61" s="28">
+      <c r="E61" s="14">
         <v>0</v>
       </c>
-      <c r="F61" s="28">
+      <c r="F61" s="14">
         <v>150</v>
       </c>
-      <c r="G61" s="28">
+      <c r="G61" s="14">
         <v>0</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="14">
         <v>0</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="14">
         <v>0</v>
       </c>
-      <c r="J61" s="28">
+      <c r="J61" s="14">
         <v>0</v>
       </c>
-      <c r="K61" s="28">
+      <c r="K61" s="14">
         <v>150</v>
       </c>
-      <c r="L61" s="28"/>
+      <c r="L61" s="14"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27" t="s">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="14">
         <v>0</v>
       </c>
-      <c r="F62" s="28">
+      <c r="F62" s="14">
         <v>10</v>
       </c>
-      <c r="G62" s="28">
+      <c r="G62" s="14">
         <v>0</v>
       </c>
-      <c r="H62" s="28">
+      <c r="H62" s="14">
         <v>0</v>
       </c>
-      <c r="I62" s="28">
+      <c r="I62" s="14">
         <v>0</v>
       </c>
-      <c r="J62" s="28">
+      <c r="J62" s="14">
         <v>0</v>
       </c>
-      <c r="K62" s="28">
+      <c r="K62" s="14">
         <v>10</v>
       </c>
-      <c r="L62" s="28"/>
+      <c r="L62" s="14"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27" t="s">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="14">
         <v>0</v>
       </c>
-      <c r="F63" s="28">
+      <c r="F63" s="14">
         <v>9960</v>
       </c>
-      <c r="G63" s="28">
+      <c r="G63" s="14">
         <v>0</v>
       </c>
-      <c r="H63" s="28">
+      <c r="H63" s="14">
         <v>0</v>
       </c>
-      <c r="I63" s="28">
+      <c r="I63" s="14">
         <v>0</v>
       </c>
-      <c r="J63" s="28">
+      <c r="J63" s="14">
         <v>0</v>
       </c>
-      <c r="K63" s="28">
+      <c r="K63" s="14">
         <v>9960</v>
       </c>
-      <c r="L63" s="28"/>
+      <c r="L63" s="14"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27" t="s">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="E64" s="28">
+      <c r="E64" s="14">
         <v>0</v>
       </c>
-      <c r="F64" s="28">
+      <c r="F64" s="14">
         <v>20</v>
       </c>
-      <c r="G64" s="28">
+      <c r="G64" s="14">
         <v>0</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="14">
         <v>0</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="14">
         <v>0</v>
       </c>
-      <c r="J64" s="28">
+      <c r="J64" s="14">
         <v>0</v>
       </c>
-      <c r="K64" s="28">
+      <c r="K64" s="14">
         <v>20</v>
       </c>
-      <c r="L64" s="28"/>
+      <c r="L64" s="14"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27" t="s">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="E65" s="28">
+      <c r="E65" s="14">
         <v>0</v>
       </c>
-      <c r="F65" s="28">
+      <c r="F65" s="14">
         <v>90</v>
       </c>
-      <c r="G65" s="28">
+      <c r="G65" s="14">
         <v>0</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="14">
         <v>0</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="14">
         <v>0</v>
       </c>
-      <c r="J65" s="28">
+      <c r="J65" s="14">
         <v>0</v>
       </c>
-      <c r="K65" s="28">
+      <c r="K65" s="14">
         <v>90</v>
       </c>
-      <c r="L65" s="28"/>
+      <c r="L65" s="14"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27" t="s">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="14">
         <v>0</v>
       </c>
-      <c r="F66" s="28">
+      <c r="F66" s="14">
         <v>2940</v>
       </c>
-      <c r="G66" s="28">
+      <c r="G66" s="14">
         <v>0</v>
       </c>
-      <c r="H66" s="28">
+      <c r="H66" s="14">
         <v>0</v>
       </c>
-      <c r="I66" s="28">
+      <c r="I66" s="14">
         <v>0</v>
       </c>
-      <c r="J66" s="28">
+      <c r="J66" s="14">
         <v>0</v>
       </c>
-      <c r="K66" s="28">
+      <c r="K66" s="14">
         <v>2940</v>
       </c>
-      <c r="L66" s="28"/>
+      <c r="L66" s="14"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27" t="s">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="14">
         <v>0</v>
       </c>
-      <c r="F67" s="28">
+      <c r="F67" s="14">
         <v>10</v>
       </c>
-      <c r="G67" s="28">
+      <c r="G67" s="14">
         <v>0</v>
       </c>
-      <c r="H67" s="28">
+      <c r="H67" s="14">
         <v>0</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="14">
         <v>0</v>
       </c>
-      <c r="J67" s="28">
+      <c r="J67" s="14">
         <v>0</v>
       </c>
-      <c r="K67" s="28">
+      <c r="K67" s="14">
         <v>10</v>
       </c>
-      <c r="L67" s="28"/>
+      <c r="L67" s="14"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27" t="s">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="14">
         <v>0</v>
       </c>
-      <c r="F68" s="28">
+      <c r="F68" s="14">
         <v>2490</v>
       </c>
-      <c r="G68" s="28">
+      <c r="G68" s="14">
         <v>0</v>
       </c>
-      <c r="H68" s="28">
+      <c r="H68" s="14">
         <v>0</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="14">
         <v>0</v>
       </c>
-      <c r="J68" s="28">
+      <c r="J68" s="14">
         <v>0</v>
       </c>
-      <c r="K68" s="28">
+      <c r="K68" s="14">
         <v>2490</v>
       </c>
-      <c r="L68" s="28"/>
+      <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="27"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27" t="s">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="E69" s="28">
+      <c r="E69" s="14">
         <v>0</v>
       </c>
-      <c r="F69" s="28">
+      <c r="F69" s="14">
         <v>1500</v>
       </c>
-      <c r="G69" s="28">
+      <c r="G69" s="14">
         <v>0</v>
       </c>
-      <c r="H69" s="28">
+      <c r="H69" s="14">
         <v>0</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="14">
         <v>0</v>
       </c>
-      <c r="J69" s="28">
+      <c r="J69" s="14">
         <v>0</v>
       </c>
-      <c r="K69" s="28">
+      <c r="K69" s="14">
         <v>1500</v>
       </c>
-      <c r="L69" s="28"/>
+      <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27" t="s">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="E70" s="28">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
-      <c r="F70" s="28">
+      <c r="F70" s="14">
         <v>300</v>
       </c>
-      <c r="G70" s="28">
+      <c r="G70" s="14">
         <v>0</v>
       </c>
-      <c r="H70" s="28">
+      <c r="H70" s="14">
         <v>0</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="14">
         <v>0</v>
       </c>
-      <c r="J70" s="28">
+      <c r="J70" s="14">
         <v>0</v>
       </c>
-      <c r="K70" s="28">
+      <c r="K70" s="14">
         <v>300</v>
       </c>
-      <c r="L70" s="28"/>
+      <c r="L70" s="14"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27" t="s">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E71" s="28">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
-      <c r="F71" s="28">
+      <c r="F71" s="14">
         <v>3930</v>
       </c>
-      <c r="G71" s="28">
+      <c r="G71" s="14">
         <v>0</v>
       </c>
-      <c r="H71" s="28">
+      <c r="H71" s="14">
         <v>0</v>
       </c>
-      <c r="I71" s="28">
+      <c r="I71" s="14">
         <v>0</v>
       </c>
-      <c r="J71" s="28">
+      <c r="J71" s="14">
         <v>0</v>
       </c>
-      <c r="K71" s="28">
+      <c r="K71" s="14">
         <v>3930</v>
       </c>
-      <c r="L71" s="28"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27" t="s">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="E72" s="28">
+      <c r="E72" s="14">
         <v>0</v>
       </c>
-      <c r="F72" s="28">
+      <c r="F72" s="14">
         <v>2580</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="14">
         <v>0</v>
       </c>
-      <c r="H72" s="28">
+      <c r="H72" s="14">
         <v>0</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="14">
         <v>0</v>
       </c>
-      <c r="J72" s="28">
+      <c r="J72" s="14">
         <v>0</v>
       </c>
-      <c r="K72" s="28">
+      <c r="K72" s="14">
         <v>2580</v>
       </c>
-      <c r="L72" s="28"/>
+      <c r="L72" s="14"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27" t="s">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="E73" s="28">
+      <c r="E73" s="14">
         <v>0</v>
       </c>
-      <c r="F73" s="28">
+      <c r="F73" s="14">
         <v>45</v>
       </c>
-      <c r="G73" s="28">
+      <c r="G73" s="14">
         <v>0</v>
       </c>
-      <c r="H73" s="28">
+      <c r="H73" s="14">
         <v>0</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="14">
         <v>0</v>
       </c>
-      <c r="J73" s="28">
+      <c r="J73" s="14">
         <v>0</v>
       </c>
-      <c r="K73" s="28">
+      <c r="K73" s="14">
         <v>45</v>
       </c>
-      <c r="L73" s="28"/>
+      <c r="L73" s="14"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27" t="s">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="E74" s="28">
+      <c r="E74" s="14">
         <v>0</v>
       </c>
-      <c r="F74" s="28">
+      <c r="F74" s="14">
         <v>3030</v>
       </c>
-      <c r="G74" s="28">
+      <c r="G74" s="14">
         <v>0</v>
       </c>
-      <c r="H74" s="28">
+      <c r="H74" s="14">
         <v>0</v>
       </c>
-      <c r="I74" s="28">
+      <c r="I74" s="14">
         <v>0</v>
       </c>
-      <c r="J74" s="28">
+      <c r="J74" s="14">
         <v>0</v>
       </c>
-      <c r="K74" s="28">
+      <c r="K74" s="14">
         <v>3030</v>
       </c>
-      <c r="L74" s="28"/>
+      <c r="L74" s="14"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="27"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27" t="s">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="E75" s="28">
+      <c r="E75" s="14">
         <v>0</v>
       </c>
-      <c r="F75" s="28">
+      <c r="F75" s="14">
         <v>6780</v>
       </c>
-      <c r="G75" s="28">
+      <c r="G75" s="14">
         <v>0</v>
       </c>
-      <c r="H75" s="28">
+      <c r="H75" s="14">
         <v>0</v>
       </c>
-      <c r="I75" s="28">
+      <c r="I75" s="14">
         <v>0</v>
       </c>
-      <c r="J75" s="28">
+      <c r="J75" s="14">
         <v>0</v>
       </c>
-      <c r="K75" s="28">
+      <c r="K75" s="14">
         <v>6780</v>
       </c>
-      <c r="L75" s="28"/>
+      <c r="L75" s="14"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="27"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27" t="s">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="E76" s="28">
+      <c r="E76" s="14">
         <v>0</v>
       </c>
-      <c r="F76" s="28">
+      <c r="F76" s="14">
         <v>3660</v>
       </c>
-      <c r="G76" s="28">
+      <c r="G76" s="14">
         <v>0</v>
       </c>
-      <c r="H76" s="28">
+      <c r="H76" s="14">
         <v>0</v>
       </c>
-      <c r="I76" s="28">
+      <c r="I76" s="14">
         <v>0</v>
       </c>
-      <c r="J76" s="28">
+      <c r="J76" s="14">
         <v>0</v>
       </c>
-      <c r="K76" s="28">
+      <c r="K76" s="14">
         <v>3660</v>
       </c>
-      <c r="L76" s="28"/>
+      <c r="L76" s="14"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="27"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27" t="s">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="E77" s="28">
+      <c r="E77" s="14">
         <v>0</v>
       </c>
-      <c r="F77" s="28">
+      <c r="F77" s="14">
         <v>80</v>
       </c>
-      <c r="G77" s="28">
+      <c r="G77" s="14">
         <v>0</v>
       </c>
-      <c r="H77" s="28">
+      <c r="H77" s="14">
         <v>0</v>
       </c>
-      <c r="I77" s="28">
+      <c r="I77" s="14">
         <v>0</v>
       </c>
-      <c r="J77" s="28">
+      <c r="J77" s="14">
         <v>0</v>
       </c>
-      <c r="K77" s="28">
+      <c r="K77" s="14">
         <v>80</v>
       </c>
-      <c r="L77" s="28"/>
+      <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27" t="s">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="14">
         <v>0</v>
       </c>
-      <c r="F78" s="28">
+      <c r="F78" s="14">
         <v>85</v>
       </c>
-      <c r="G78" s="28">
+      <c r="G78" s="14">
         <v>0</v>
       </c>
-      <c r="H78" s="28">
+      <c r="H78" s="14">
         <v>0</v>
       </c>
-      <c r="I78" s="28">
+      <c r="I78" s="14">
         <v>0</v>
       </c>
-      <c r="J78" s="28">
+      <c r="J78" s="14">
         <v>0</v>
       </c>
-      <c r="K78" s="28">
+      <c r="K78" s="14">
         <v>85</v>
       </c>
-      <c r="L78" s="28"/>
+      <c r="L78" s="14"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27" t="s">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="14">
         <v>0</v>
       </c>
-      <c r="F79" s="28">
+      <c r="F79" s="14">
         <v>3840</v>
       </c>
-      <c r="G79" s="28">
+      <c r="G79" s="14">
         <v>0</v>
       </c>
-      <c r="H79" s="28">
+      <c r="H79" s="14">
         <v>0</v>
       </c>
-      <c r="I79" s="28">
+      <c r="I79" s="14">
         <v>0</v>
       </c>
-      <c r="J79" s="28">
+      <c r="J79" s="14">
         <v>0</v>
       </c>
-      <c r="K79" s="28">
+      <c r="K79" s="14">
         <v>3840</v>
       </c>
-      <c r="L79" s="28"/>
+      <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="27"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27" t="s">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="E80" s="28">
+      <c r="E80" s="14">
         <v>0</v>
       </c>
-      <c r="F80" s="28">
+      <c r="F80" s="14">
         <v>1370</v>
       </c>
-      <c r="G80" s="28">
+      <c r="G80" s="14">
         <v>0</v>
       </c>
-      <c r="H80" s="28">
+      <c r="H80" s="14">
         <v>0</v>
       </c>
-      <c r="I80" s="28">
+      <c r="I80" s="14">
         <v>0</v>
       </c>
-      <c r="J80" s="28">
+      <c r="J80" s="14">
         <v>0</v>
       </c>
-      <c r="K80" s="28">
+      <c r="K80" s="14">
         <v>1370</v>
       </c>
-      <c r="L80" s="28"/>
+      <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27" t="s">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="14">
         <v>0</v>
       </c>
-      <c r="F81" s="28">
+      <c r="F81" s="14">
         <v>8770</v>
       </c>
-      <c r="G81" s="28">
+      <c r="G81" s="14">
         <v>0</v>
       </c>
-      <c r="H81" s="28">
+      <c r="H81" s="14">
         <v>0</v>
       </c>
-      <c r="I81" s="28">
+      <c r="I81" s="14">
         <v>0</v>
       </c>
-      <c r="J81" s="28">
+      <c r="J81" s="14">
         <v>0</v>
       </c>
-      <c r="K81" s="28">
+      <c r="K81" s="14">
         <v>8770</v>
       </c>
-      <c r="L81" s="28"/>
+      <c r="L81" s="14"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27" t="s">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="E82" s="28">
+      <c r="E82" s="14">
         <v>0</v>
       </c>
-      <c r="F82" s="28">
+      <c r="F82" s="14">
         <v>2460</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="14">
         <v>0</v>
       </c>
-      <c r="H82" s="28">
+      <c r="H82" s="14">
         <v>0</v>
       </c>
-      <c r="I82" s="28">
+      <c r="I82" s="14">
         <v>0</v>
       </c>
-      <c r="J82" s="28">
+      <c r="J82" s="14">
         <v>0</v>
       </c>
-      <c r="K82" s="28">
+      <c r="K82" s="14">
         <v>2460</v>
       </c>
-      <c r="L82" s="28"/>
+      <c r="L82" s="14"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27" t="s">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="E83" s="28">
+      <c r="E83" s="14">
         <v>0</v>
       </c>
-      <c r="F83" s="28">
+      <c r="F83" s="14">
         <v>5460</v>
       </c>
-      <c r="G83" s="28">
+      <c r="G83" s="14">
         <v>0</v>
       </c>
-      <c r="H83" s="28">
+      <c r="H83" s="14">
         <v>0</v>
       </c>
-      <c r="I83" s="28">
+      <c r="I83" s="14">
         <v>0</v>
       </c>
-      <c r="J83" s="28">
+      <c r="J83" s="14">
         <v>0</v>
       </c>
-      <c r="K83" s="28">
+      <c r="K83" s="14">
         <v>5460</v>
       </c>
-      <c r="L83" s="28"/>
+      <c r="L83" s="14"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="27"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27" t="s">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="14">
         <v>0</v>
       </c>
-      <c r="F84" s="28">
+      <c r="F84" s="14">
         <v>145</v>
       </c>
-      <c r="G84" s="28">
+      <c r="G84" s="14">
         <v>0</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="14">
         <v>0</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="14">
         <v>0</v>
       </c>
-      <c r="J84" s="28">
+      <c r="J84" s="14">
         <v>0</v>
       </c>
-      <c r="K84" s="28">
+      <c r="K84" s="14">
         <v>145</v>
       </c>
-      <c r="L84" s="28"/>
+      <c r="L84" s="14"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27" t="s">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="E85" s="28">
+      <c r="E85" s="14">
         <v>0</v>
       </c>
-      <c r="F85" s="28">
+      <c r="F85" s="14">
         <v>250</v>
       </c>
-      <c r="G85" s="28">
+      <c r="G85" s="14">
         <v>0</v>
       </c>
-      <c r="H85" s="28">
+      <c r="H85" s="14">
         <v>0</v>
       </c>
-      <c r="I85" s="28">
+      <c r="I85" s="14">
         <v>0</v>
       </c>
-      <c r="J85" s="28">
+      <c r="J85" s="14">
         <v>0</v>
       </c>
-      <c r="K85" s="28">
+      <c r="K85" s="14">
         <v>250</v>
       </c>
-      <c r="L85" s="28"/>
+      <c r="L85" s="14"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27" t="s">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="E86" s="28">
+      <c r="E86" s="14">
         <v>0</v>
       </c>
-      <c r="F86" s="28">
+      <c r="F86" s="14">
         <v>640</v>
       </c>
-      <c r="G86" s="28">
+      <c r="G86" s="14">
         <v>0</v>
       </c>
-      <c r="H86" s="28">
+      <c r="H86" s="14">
         <v>0</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="14">
         <v>0</v>
       </c>
-      <c r="J86" s="28">
+      <c r="J86" s="14">
         <v>0</v>
       </c>
-      <c r="K86" s="28">
+      <c r="K86" s="14">
         <v>640</v>
       </c>
-      <c r="L86" s="28"/>
+      <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="27"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27" t="s">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="14">
         <v>0</v>
       </c>
-      <c r="F87" s="28">
+      <c r="F87" s="14">
         <v>4440</v>
       </c>
-      <c r="G87" s="28">
+      <c r="G87" s="14">
         <v>0</v>
       </c>
-      <c r="H87" s="28">
+      <c r="H87" s="14">
         <v>0</v>
       </c>
-      <c r="I87" s="28">
+      <c r="I87" s="14">
         <v>0</v>
       </c>
-      <c r="J87" s="28">
+      <c r="J87" s="14">
         <v>0</v>
       </c>
-      <c r="K87" s="28">
+      <c r="K87" s="14">
         <v>4440</v>
       </c>
-      <c r="L87" s="28"/>
+      <c r="L87" s="14"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27" t="s">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="14">
         <v>0</v>
       </c>
-      <c r="F88" s="28">
+      <c r="F88" s="14">
         <v>4260</v>
       </c>
-      <c r="G88" s="28">
+      <c r="G88" s="14">
         <v>0</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="14">
         <v>0</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="14">
         <v>0</v>
       </c>
-      <c r="J88" s="28">
+      <c r="J88" s="14">
         <v>0</v>
       </c>
-      <c r="K88" s="28">
+      <c r="K88" s="14">
         <v>4260</v>
       </c>
-      <c r="L88" s="28"/>
+      <c r="L88" s="14"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="27"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27" t="s">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="E89" s="28">
+      <c r="E89" s="14">
         <v>0</v>
       </c>
-      <c r="F89" s="28">
+      <c r="F89" s="14">
         <v>6030</v>
       </c>
-      <c r="G89" s="28">
+      <c r="G89" s="14">
         <v>0</v>
       </c>
-      <c r="H89" s="28">
+      <c r="H89" s="14">
         <v>0</v>
       </c>
-      <c r="I89" s="28">
+      <c r="I89" s="14">
         <v>0</v>
       </c>
-      <c r="J89" s="28">
+      <c r="J89" s="14">
         <v>0</v>
       </c>
-      <c r="K89" s="28">
+      <c r="K89" s="14">
         <v>6030</v>
       </c>
-      <c r="L89" s="28"/>
+      <c r="L89" s="14"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="27"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27" t="s">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="E90" s="28">
+      <c r="E90" s="14">
         <v>0</v>
       </c>
-      <c r="F90" s="28">
+      <c r="F90" s="14">
         <v>2310</v>
       </c>
-      <c r="G90" s="28">
+      <c r="G90" s="14">
         <v>0</v>
       </c>
-      <c r="H90" s="28">
+      <c r="H90" s="14">
         <v>0</v>
       </c>
-      <c r="I90" s="28">
+      <c r="I90" s="14">
         <v>0</v>
       </c>
-      <c r="J90" s="28">
+      <c r="J90" s="14">
         <v>0</v>
       </c>
-      <c r="K90" s="28">
+      <c r="K90" s="14">
         <v>2310</v>
       </c>
-      <c r="L90" s="28"/>
+      <c r="L90" s="14"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="27"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27" t="s">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="E91" s="28">
+      <c r="E91" s="14">
         <v>0</v>
       </c>
-      <c r="F91" s="28">
+      <c r="F91" s="14">
         <v>325</v>
       </c>
-      <c r="G91" s="28">
+      <c r="G91" s="14">
         <v>0</v>
       </c>
-      <c r="H91" s="28">
+      <c r="H91" s="14">
         <v>0</v>
       </c>
-      <c r="I91" s="28">
+      <c r="I91" s="14">
         <v>0</v>
       </c>
-      <c r="J91" s="28">
+      <c r="J91" s="14">
         <v>0</v>
       </c>
-      <c r="K91" s="28">
+      <c r="K91" s="14">
         <v>325</v>
       </c>
-      <c r="L91" s="28"/>
+      <c r="L91" s="14"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="27"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27" t="s">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="E92" s="28">
+      <c r="E92" s="14">
         <v>0</v>
       </c>
-      <c r="F92" s="28">
+      <c r="F92" s="14">
         <v>4740</v>
       </c>
-      <c r="G92" s="28">
+      <c r="G92" s="14">
         <v>0</v>
       </c>
-      <c r="H92" s="28">
+      <c r="H92" s="14">
         <v>0</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="14">
         <v>0</v>
       </c>
-      <c r="J92" s="28">
+      <c r="J92" s="14">
         <v>0</v>
       </c>
-      <c r="K92" s="28">
+      <c r="K92" s="14">
         <v>4740</v>
       </c>
-      <c r="L92" s="28"/>
+      <c r="L92" s="14"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="27"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27" t="s">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="E93" s="28">
+      <c r="E93" s="14">
         <v>0</v>
       </c>
-      <c r="F93" s="28">
+      <c r="F93" s="14">
         <v>60</v>
       </c>
-      <c r="G93" s="28">
+      <c r="G93" s="14">
         <v>0</v>
       </c>
-      <c r="H93" s="28">
+      <c r="H93" s="14">
         <v>0</v>
       </c>
-      <c r="I93" s="28">
+      <c r="I93" s="14">
         <v>0</v>
       </c>
-      <c r="J93" s="28">
+      <c r="J93" s="14">
         <v>0</v>
       </c>
-      <c r="K93" s="28">
+      <c r="K93" s="14">
         <v>60</v>
       </c>
-      <c r="L93" s="28"/>
+      <c r="L93" s="14"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="27"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27" t="s">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="E94" s="28">
+      <c r="E94" s="14">
         <v>0</v>
       </c>
-      <c r="F94" s="28">
+      <c r="F94" s="14">
         <v>405</v>
       </c>
-      <c r="G94" s="28">
+      <c r="G94" s="14">
         <v>0</v>
       </c>
-      <c r="H94" s="28">
+      <c r="H94" s="14">
         <v>0</v>
       </c>
-      <c r="I94" s="28">
+      <c r="I94" s="14">
         <v>0</v>
       </c>
-      <c r="J94" s="28">
+      <c r="J94" s="14">
         <v>0</v>
       </c>
-      <c r="K94" s="28">
+      <c r="K94" s="14">
         <v>405</v>
       </c>
-      <c r="L94" s="28"/>
+      <c r="L94" s="14"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="27"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27" t="s">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="E95" s="28">
+      <c r="E95" s="14">
         <v>0</v>
       </c>
-      <c r="F95" s="28">
+      <c r="F95" s="14">
         <v>190</v>
       </c>
-      <c r="G95" s="28">
+      <c r="G95" s="14">
         <v>0</v>
       </c>
-      <c r="H95" s="28">
+      <c r="H95" s="14">
         <v>0</v>
       </c>
-      <c r="I95" s="28">
+      <c r="I95" s="14">
         <v>0</v>
       </c>
-      <c r="J95" s="28">
+      <c r="J95" s="14">
         <v>0</v>
       </c>
-      <c r="K95" s="28">
+      <c r="K95" s="14">
         <v>190</v>
       </c>
-      <c r="L95" s="28"/>
+      <c r="L95" s="14"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="27"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27" t="s">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="14">
         <v>0</v>
       </c>
-      <c r="F96" s="28">
+      <c r="F96" s="14">
         <v>1560</v>
       </c>
-      <c r="G96" s="28">
+      <c r="G96" s="14">
         <v>0</v>
       </c>
-      <c r="H96" s="28">
+      <c r="H96" s="14">
         <v>0</v>
       </c>
-      <c r="I96" s="28">
+      <c r="I96" s="14">
         <v>0</v>
       </c>
-      <c r="J96" s="28">
+      <c r="J96" s="14">
         <v>0</v>
       </c>
-      <c r="K96" s="28">
+      <c r="K96" s="14">
         <v>1560</v>
       </c>
-      <c r="L96" s="28"/>
+      <c r="L96" s="14"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="27"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27" t="s">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="E97" s="28">
+      <c r="E97" s="14">
         <v>0</v>
       </c>
-      <c r="F97" s="28">
+      <c r="F97" s="14">
         <v>2470</v>
       </c>
-      <c r="G97" s="28">
+      <c r="G97" s="14">
         <v>0</v>
       </c>
-      <c r="H97" s="28">
+      <c r="H97" s="14">
         <v>0</v>
       </c>
-      <c r="I97" s="28">
+      <c r="I97" s="14">
         <v>0</v>
       </c>
-      <c r="J97" s="28">
+      <c r="J97" s="14">
         <v>0</v>
       </c>
-      <c r="K97" s="28">
+      <c r="K97" s="14">
         <v>2470</v>
       </c>
-      <c r="L97" s="28"/>
+      <c r="L97" s="14"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="27"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27" t="s">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="14">
         <v>0</v>
       </c>
-      <c r="F98" s="28">
+      <c r="F98" s="14">
         <v>120</v>
       </c>
-      <c r="G98" s="28">
+      <c r="G98" s="14">
         <v>0</v>
       </c>
-      <c r="H98" s="28">
+      <c r="H98" s="14">
         <v>0</v>
       </c>
-      <c r="I98" s="28">
+      <c r="I98" s="14">
         <v>0</v>
       </c>
-      <c r="J98" s="28">
+      <c r="J98" s="14">
         <v>0</v>
       </c>
-      <c r="K98" s="28">
+      <c r="K98" s="14">
         <v>120</v>
       </c>
-      <c r="L98" s="28"/>
+      <c r="L98" s="14"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="27"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27" t="s">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="E99" s="28">
+      <c r="E99" s="14">
         <v>0</v>
       </c>
-      <c r="F99" s="28">
+      <c r="F99" s="14">
         <v>3690</v>
       </c>
-      <c r="G99" s="28">
+      <c r="G99" s="14">
         <v>0</v>
       </c>
-      <c r="H99" s="28">
+      <c r="H99" s="14">
         <v>0</v>
       </c>
-      <c r="I99" s="28">
+      <c r="I99" s="14">
         <v>0</v>
       </c>
-      <c r="J99" s="28">
+      <c r="J99" s="14">
         <v>0</v>
       </c>
-      <c r="K99" s="28">
+      <c r="K99" s="14">
         <v>3690</v>
       </c>
-      <c r="L99" s="28"/>
+      <c r="L99" s="14"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="27"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27" t="s">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="14">
         <v>0</v>
       </c>
-      <c r="F100" s="28">
+      <c r="F100" s="14">
         <v>4410</v>
       </c>
-      <c r="G100" s="28">
+      <c r="G100" s="14">
         <v>0</v>
       </c>
-      <c r="H100" s="28">
+      <c r="H100" s="14">
         <v>0</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="14">
         <v>0</v>
       </c>
-      <c r="J100" s="28">
+      <c r="J100" s="14">
         <v>0</v>
       </c>
-      <c r="K100" s="28">
+      <c r="K100" s="14">
         <v>4410</v>
       </c>
-      <c r="L100" s="28"/>
+      <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="27"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27" t="s">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="E101" s="28">
+      <c r="E101" s="14">
         <v>0</v>
       </c>
-      <c r="F101" s="28">
+      <c r="F101" s="14">
         <v>6270</v>
       </c>
-      <c r="G101" s="28">
+      <c r="G101" s="14">
         <v>0</v>
       </c>
-      <c r="H101" s="28">
+      <c r="H101" s="14">
         <v>0</v>
       </c>
-      <c r="I101" s="28">
+      <c r="I101" s="14">
         <v>0</v>
       </c>
-      <c r="J101" s="28">
+      <c r="J101" s="14">
         <v>0</v>
       </c>
-      <c r="K101" s="28">
+      <c r="K101" s="14">
         <v>6270</v>
       </c>
-      <c r="L101" s="28"/>
+      <c r="L101" s="14"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="27"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27" t="s">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="E102" s="28">
+      <c r="E102" s="14">
         <v>0</v>
       </c>
-      <c r="F102" s="28">
+      <c r="F102" s="14">
         <v>630</v>
       </c>
-      <c r="G102" s="28">
+      <c r="G102" s="14">
         <v>0</v>
       </c>
-      <c r="H102" s="28">
+      <c r="H102" s="14">
         <v>0</v>
       </c>
-      <c r="I102" s="28">
+      <c r="I102" s="14">
         <v>0</v>
       </c>
-      <c r="J102" s="28">
+      <c r="J102" s="14">
         <v>0</v>
       </c>
-      <c r="K102" s="28">
+      <c r="K102" s="14">
         <v>630</v>
       </c>
-      <c r="L102" s="28"/>
+      <c r="L102" s="14"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="27"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27" t="s">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="E103" s="28">
+      <c r="E103" s="14">
         <v>0</v>
       </c>
-      <c r="F103" s="28">
+      <c r="F103" s="14">
         <v>1830</v>
       </c>
-      <c r="G103" s="28">
+      <c r="G103" s="14">
         <v>0</v>
       </c>
-      <c r="H103" s="28">
+      <c r="H103" s="14">
         <v>0</v>
       </c>
-      <c r="I103" s="28">
+      <c r="I103" s="14">
         <v>0</v>
       </c>
-      <c r="J103" s="28">
+      <c r="J103" s="14">
         <v>0</v>
       </c>
-      <c r="K103" s="28">
+      <c r="K103" s="14">
         <v>1830</v>
       </c>
-      <c r="L103" s="28"/>
+      <c r="L103" s="14"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="27"/>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27" t="s">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="E104" s="28">
+      <c r="E104" s="14">
         <v>0</v>
       </c>
-      <c r="F104" s="28">
+      <c r="F104" s="14">
         <v>90</v>
       </c>
-      <c r="G104" s="28">
+      <c r="G104" s="14">
         <v>0</v>
       </c>
-      <c r="H104" s="28">
+      <c r="H104" s="14">
         <v>0</v>
       </c>
-      <c r="I104" s="28">
+      <c r="I104" s="14">
         <v>0</v>
       </c>
-      <c r="J104" s="28">
+      <c r="J104" s="14">
         <v>0</v>
       </c>
-      <c r="K104" s="28">
+      <c r="K104" s="14">
         <v>90</v>
       </c>
-      <c r="L104" s="28"/>
+      <c r="L104" s="14"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="27"/>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27" t="s">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="E105" s="28">
+      <c r="E105" s="14">
         <v>0</v>
       </c>
-      <c r="F105" s="28">
+      <c r="F105" s="14">
         <v>8850</v>
       </c>
-      <c r="G105" s="28">
+      <c r="G105" s="14">
         <v>0</v>
       </c>
-      <c r="H105" s="28">
+      <c r="H105" s="14">
         <v>0</v>
       </c>
-      <c r="I105" s="28">
+      <c r="I105" s="14">
         <v>0</v>
       </c>
-      <c r="J105" s="28">
+      <c r="J105" s="14">
         <v>0</v>
       </c>
-      <c r="K105" s="28">
+      <c r="K105" s="14">
         <v>8850</v>
       </c>
-      <c r="L105" s="28"/>
+      <c r="L105" s="14"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="27"/>
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27" t="s">
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="E106" s="28">
+      <c r="E106" s="14">
         <v>0</v>
       </c>
-      <c r="F106" s="28">
+      <c r="F106" s="14">
         <v>4650</v>
       </c>
-      <c r="G106" s="28">
+      <c r="G106" s="14">
         <v>0</v>
       </c>
-      <c r="H106" s="28">
+      <c r="H106" s="14">
         <v>0</v>
       </c>
-      <c r="I106" s="28">
+      <c r="I106" s="14">
         <v>0</v>
       </c>
-      <c r="J106" s="28">
+      <c r="J106" s="14">
         <v>0</v>
       </c>
-      <c r="K106" s="28">
+      <c r="K106" s="14">
         <v>4650</v>
       </c>
-      <c r="L106" s="28"/>
+      <c r="L106" s="14"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="27"/>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27" t="s">
+      <c r="A107" s="13"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="E107" s="28">
+      <c r="E107" s="14">
         <v>0</v>
       </c>
-      <c r="F107" s="28">
+      <c r="F107" s="14">
         <v>4580</v>
       </c>
-      <c r="G107" s="28">
+      <c r="G107" s="14">
         <v>0</v>
       </c>
-      <c r="H107" s="28">
+      <c r="H107" s="14">
         <v>0</v>
       </c>
-      <c r="I107" s="28">
+      <c r="I107" s="14">
         <v>0</v>
       </c>
-      <c r="J107" s="28">
+      <c r="J107" s="14">
         <v>0</v>
       </c>
-      <c r="K107" s="28">
+      <c r="K107" s="14">
         <v>4580</v>
       </c>
-      <c r="L107" s="28"/>
+      <c r="L107" s="14"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="27"/>
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27" t="s">
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="14">
         <v>0</v>
       </c>
-      <c r="F108" s="28">
+      <c r="F108" s="14">
         <v>105</v>
       </c>
-      <c r="G108" s="28">
+      <c r="G108" s="14">
         <v>0</v>
       </c>
-      <c r="H108" s="28">
+      <c r="H108" s="14">
         <v>7524</v>
       </c>
-      <c r="I108" s="28">
+      <c r="I108" s="14">
         <v>0</v>
       </c>
-      <c r="J108" s="28">
+      <c r="J108" s="14">
         <v>0</v>
       </c>
-      <c r="K108" s="28">
+      <c r="K108" s="14">
         <v>7629</v>
       </c>
-      <c r="L108" s="28">
+      <c r="L108" s="14">
         <v>199042</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="33" t="s">
+      <c r="A109" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33"/>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="29"/>
     </row>
     <row r="110" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27" t="s">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27" t="s">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="E110" s="28">
+      <c r="E110" s="14">
         <v>0</v>
       </c>
-      <c r="F110" s="28">
+      <c r="F110" s="14">
         <v>186770</v>
       </c>
-      <c r="G110" s="28">
+      <c r="G110" s="14">
         <v>0</v>
       </c>
-      <c r="H110" s="28">
+      <c r="H110" s="14">
         <v>7524</v>
       </c>
-      <c r="I110" s="28">
+      <c r="I110" s="14">
         <v>0</v>
       </c>
-      <c r="J110" s="28">
+      <c r="J110" s="14">
         <v>68789</v>
       </c>
-      <c r="K110" s="32">
+      <c r="K110" s="28">
         <v>263083</v>
       </c>
-      <c r="L110" s="32"/>
+      <c r="L110" s="28"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
@@ -6198,8 +6168,8 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6214,28 +6184,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6915,40 +6885,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="15" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14047,40 +14017,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
@@ -52261,40 +52231,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="15" t="s">
         <v>198</v>
       </c>
     </row>
@@ -52589,40 +52559,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -52651,40 +52621,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="15" t="s">
         <v>200</v>
       </c>
     </row>
@@ -52699,7 +52669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -52774,553 +52744,575 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="19">
         <v>0.6</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="19">
         <v>0.4</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="I3" s="15"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="19">
         <v>0.5</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="19">
         <v>0.2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="19">
         <v>0.3</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="19">
         <v>0.8</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="19">
         <v>0.2</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="16" t="s">
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="19">
         <v>0.4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="19">
         <v>0.25</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="18">
         <v>4520</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="19">
         <v>0.35</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="I6" s="17"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="16" t="s">
+      <c r="B7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="I7" s="17"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="19">
         <v>0.4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="19">
         <v>0.6</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="16" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="19">
         <v>0.8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="19">
         <v>0.2</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="16" t="s">
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="19">
         <v>0.4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="19">
         <v>0.4</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="19">
         <v>0.2</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="19">
         <v>0.2</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="19">
         <v>0.4</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="19">
         <v>0.4</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="19">
         <v>0.5</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="19">
         <v>0.5</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="16" t="s">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="16" t="s">
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="24"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="19">
         <v>1</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="16" t="s">
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="19">
         <v>1</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="16" t="s">
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="17"/>
+      <c r="I16" s="24"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="19">
         <v>0.4</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="19">
         <v>0.4</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="19">
         <v>0.2</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="I17" s="17"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="19">
         <v>1</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="16" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="I18" s="17"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="19">
         <v>1</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="16" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="I19" s="17"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="19">
         <v>1</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="16" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="I20" s="17"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="19">
         <v>1</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="16" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="I21" s="17"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="16" t="s">
+      <c r="B22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="I22" s="17"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="19">
         <v>0.5</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="19">
         <v>0.5</v>
       </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="16" t="s">
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="I23" s="17"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="19">
         <v>0.5</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="19">
         <v>0.5</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="16" t="s">
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="I24" s="17"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>23</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="19">
         <v>0.4</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="19">
         <v>0.6</v>
       </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="16" t="s">
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="I25" s="17"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>24</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="19">
         <v>1</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="16" t="s">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="I26" s="17"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>25</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="19">
         <v>1</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="16" t="s">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="I27" s="17"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>26</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="16" t="s">
+      <c r="B28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="E28" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H28" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
@@ -53332,7 +53324,7 @@
       <c r="C29" s="19">
         <v>0.5</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="25" t="s">
         <v>240</v>
       </c>
       <c r="E29" s="19">
@@ -53340,780 +53332,789 @@
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="19"/>
-      <c r="H29" s="16" t="s">
+      <c r="H29" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>28</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="19">
         <v>0.7</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="19">
         <v>0.3</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="16" t="s">
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>29</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="19">
         <v>0.4</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="19">
         <v>0.2</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="19">
         <v>0.4</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>30</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="19">
         <v>0.5</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="19">
         <v>0.5</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="16" t="s">
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="I32" s="17"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>31</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="19">
         <v>1</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="16" t="s">
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="I33" s="17"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>32</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="19">
         <v>0.6</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="19">
         <v>0.4</v>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="16" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="I34" s="17"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>33</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="19">
         <v>1</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="16" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="I35" s="17"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>34</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="19">
         <v>1</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="16" t="s">
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>35</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="19">
         <v>1</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="16" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="I37" s="17"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="19">
         <v>0.7</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="19">
         <v>0.3</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="16" t="s">
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="I38" s="17"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="19">
         <v>1</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="16" t="s">
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="I39" s="17"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="19">
         <v>0.6</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="19">
         <v>0.2</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="19">
         <v>0.2</v>
       </c>
-      <c r="H40" s="16" t="s">
+      <c r="H40" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="I40" s="17"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="27">
         <v>0.5</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="19">
         <v>0.5</v>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="16" t="s">
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="19">
         <v>0.9</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="19">
         <v>0.1</v>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="16" t="s">
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="I42" s="17"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="19">
         <v>1</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="16" t="s">
+      <c r="D43" s="18"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="17"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="19">
         <v>1</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="16" t="s">
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="I44" s="17"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="19">
         <v>0.9</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="19">
         <v>0.1</v>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="16" t="s">
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="I45" s="17"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="19">
         <v>1</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="16" t="s">
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="23" t="s">
         <v>262</v>
       </c>
-      <c r="I46" s="17"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="19">
         <v>0.8</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="19">
         <v>0.1</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="19">
         <v>0.1</v>
       </c>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="I47" s="17"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="19">
         <v>1</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="16" t="s">
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="19">
         <v>0.5</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="19">
         <v>0.5</v>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="16" t="s">
+      <c r="F49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="16" t="s">
+      <c r="B50" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50" s="19">
+        <v>1</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="19">
         <v>0.7</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="19">
         <v>0.3</v>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="16" t="s">
+      <c r="F51" s="18"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="I51" s="17"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="19">
         <v>1</v>
       </c>
-      <c r="D52" s="10"/>
-      <c r="E52" s="13"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="16" t="s">
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="I52" s="17"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="19">
         <v>0.5</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="19">
         <v>0.5</v>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="16" t="s">
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="I53" s="17"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="19">
         <v>0.8</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="19">
         <v>0.2</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="16" t="s">
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="I54" s="17"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="19">
         <v>0.9</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="19">
         <v>0.1</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="16" t="s">
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I55" s="17"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="19">
         <v>1</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="16" t="s">
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="I56" s="17"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="19">
         <v>0.4</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="19">
         <v>0.5</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="19">
         <v>0.1</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="23" t="s">
         <v>274</v>
       </c>
-      <c r="I57" s="17"/>
+      <c r="I57" s="24"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="19">
         <v>1</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="13"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="16" t="s">
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="I58" s="17"/>
+      <c r="I58" s="24"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="19">
         <v>1</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="16" t="s">
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="I59" s="17"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="19">
         <v>0.5</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="19">
         <v>0.5</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="16" t="s">
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="I60" s="17"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="19">
         <v>0.5</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="19">
         <v>0.5</v>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="16" t="s">
+      <c r="F61" s="18"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="I61" s="17"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="18" t="s">
         <v>210</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="19">
         <v>1</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="16" t="s">
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="I62" s="17"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="13"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="16" t="s">
+      <c r="B63" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="19">
+        <v>1</v>
+      </c>
+      <c r="D63" s="20"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="I63" s="17"/>
+      <c r="I63" s="24"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="17"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="24"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="17"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="24"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="17"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="24"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="C3:C66 E3:E66 G3:G66">
+    <dataValidation type="list" allowBlank="1" sqref="G3:G66 E3:E66 C3:C66">
       <formula1>"10%,15%,20%,25%,30%,35%,40%,45%,50%,60%,70%,80%,90%,100%"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="H3:H66">
@@ -54121,5 +54122,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AutodeskCost/Autodesk費用統整.xlsx
+++ b/AutodeskCost/Autodesk費用統整.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Prj\C#\AutodeskCost\AutodeskCost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Donald的檔案\中興工程\Autodesk費用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="計畫資訊" sheetId="8" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6613" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="468">
   <si>
     <t>年月</t>
   </si>
@@ -1833,10 +1833,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2126,9 +2126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2934,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2989,20 +2989,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
@@ -3043,20 +3043,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -3097,20 +3097,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -3151,20 +3151,20 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
@@ -3235,20 +3235,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
@@ -3349,20 +3349,20 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
@@ -3403,20 +3403,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -3487,20 +3487,20 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
@@ -3571,20 +3571,20 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
@@ -3625,20 +3625,20 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
@@ -3679,20 +3679,20 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
@@ -3763,20 +3763,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
@@ -3877,20 +3877,20 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
@@ -3931,20 +3931,20 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
@@ -4015,20 +4015,20 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
@@ -4099,20 +4099,20 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
@@ -4153,20 +4153,20 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
@@ -4207,20 +4207,20 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
@@ -4261,20 +4261,20 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="29"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
@@ -6085,20 +6085,20 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="28"/>
+      <c r="D109" s="28"/>
+      <c r="E109" s="28"/>
+      <c r="F109" s="28"/>
+      <c r="G109" s="28"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
+      <c r="J109" s="28"/>
+      <c r="K109" s="28"/>
+      <c r="L109" s="28"/>
     </row>
     <row r="110" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
@@ -6127,14 +6127,27 @@
       <c r="J110" s="14">
         <v>68789</v>
       </c>
-      <c r="K110" s="28">
+      <c r="K110" s="29">
         <v>263083</v>
       </c>
-      <c r="L110" s="28"/>
+      <c r="L110" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1"/>
   <mergeCells count="21">
+    <mergeCell ref="K110:L110"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A42:L42"/>
+    <mergeCell ref="A44:L44"/>
+    <mergeCell ref="A46:L46"/>
+    <mergeCell ref="A48:L48"/>
+    <mergeCell ref="A109:L109"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A8:L8"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="A25:L25"/>
@@ -6143,19 +6156,6 @@
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="A27:L27"/>
     <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="K110:L110"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A46:L46"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A109:L109"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52669,7 +52669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -52829,8 +52829,8 @@
       <c r="E6" s="19">
         <v>0.25</v>
       </c>
-      <c r="F6" s="18">
-        <v>4520</v>
+      <c r="F6" s="18" t="s">
+        <v>40</v>
       </c>
       <c r="G6" s="19">
         <v>0.35</v>
